--- a/report/No4_テスト結果.xlsx
+++ b/report/No4_テスト結果.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20401"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96E42BA-2152-4E37-9350-3EA0FE5386A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0E0A5E-7901-47E7-B036-9DA9191DB5FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -199,13 +199,6 @@
     <t>テスト内容：料金情報編集画面で料金の編集後に、料金検索結果画面で変更した料金情報を確認する。</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認内容：編集内容が保存されていること。</t>
-    <rPh sb="0" eb="4">
-      <t>カクニンナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,23 +409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テスト内容：料金情報検索画面で料金新規追加後に全件検索を実施する。</t>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>確認内容：検索結果に新規追加した料金情報が表示されていること。</t>
-    <rPh sb="0" eb="2">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テスト内容：料金情報追加画面でキャンセルリンクを押下する。</t>
     <rPh sb="3" eb="5">
       <t>ナイヨウ</t>
@@ -446,6 +422,30 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト内容：DBの料金情報テーブル(T_CHARGE)で追加した料金情報を確認する。</t>
+    <rPh sb="3" eb="5">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認内容：新規追加した料金情報が表示されていること。</t>
+    <rPh sb="0" eb="2">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>確認内容：編集した料金情報が表示されていること。</t>
+    <rPh sb="0" eb="4">
+      <t>カクニンナイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2244,16 +2244,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>435336</xdr:colOff>
+      <xdr:colOff>424260</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C05F93B-868D-4F43-ABB1-829C270A6413}"/>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B72D9FC-8D64-4689-89AB-D4AB985A0E1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2270,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="685800"/>
-          <a:ext cx="11408136" cy="6120000"/>
+          <a:ext cx="11397060" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2279,62 +2279,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>51</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>435387</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E770001-5E06-4003-88BF-9A7785060E9B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51" y="7029450"/>
-          <a:ext cx="11408136" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2349,8 +2305,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143250" y="2466975"/>
-          <a:ext cx="666750" cy="1209675"/>
+          <a:off x="1266824" y="2724150"/>
+          <a:ext cx="3781425" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2389,25 +2345,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D1AD82-E719-47FE-A051-0BB1DA0788D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="11397060" cy="6120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>66673</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>581026</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{009BE046-16CF-42AE-9D7F-C5010A907BED}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8812CE03-F2DA-4569-A6D6-51F9959D7B0E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2415,8 +2420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1838326" y="8639173"/>
-          <a:ext cx="6286500" cy="200027"/>
+          <a:off x="3114675" y="1990726"/>
+          <a:ext cx="6457950" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2455,30 +2460,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:colOff>46</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>424260</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:colOff>457621</xdr:colOff>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44D1AD82-E719-47FE-A051-0BB1DA0788D0}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3050D6-88CA-4F3D-AF58-954B36D3F95D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,15 +2487,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="685800"/>
-          <a:ext cx="11397060" cy="6120000"/>
+          <a:off x="46" y="7029450"/>
+          <a:ext cx="11430375" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2507,22 +2507,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:colOff>390571</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8812CE03-F2DA-4569-A6D6-51F9959D7B0E}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219FABBC-67D3-41D0-9C77-15AEFE570075}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2530,8 +2530,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114675" y="1990726"/>
-          <a:ext cx="6457950" cy="304800"/>
+          <a:off x="3133771" y="8591550"/>
+          <a:ext cx="1133429" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2570,69 +2570,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>46</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>457621</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF3050D6-88CA-4F3D-AF58-954B36D3F95D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="46" y="7029450"/>
-          <a:ext cx="11430375" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>390571</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{219FABBC-67D3-41D0-9C77-15AEFE570075}"/>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4F770B-A2CC-4818-AD34-79C6A80A590D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2640,8 +2596,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3133771" y="8591550"/>
-          <a:ext cx="1133429" cy="171450"/>
+          <a:off x="3114675" y="3276601"/>
+          <a:ext cx="428625" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2680,25 +2636,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>424260</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD680527-038B-42ED-8773-7917418AE5DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="11397060" cy="6120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F4F770B-A2CC-4818-AD34-79C6A80A590D}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CE6DB1-AE31-406F-857A-0C10D277A800}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2706,8 +2711,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114675" y="3276601"/>
-          <a:ext cx="428625" cy="304800"/>
+          <a:off x="1790700" y="1552575"/>
+          <a:ext cx="1524000" cy="323849"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2749,7 +2754,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2759,17 +2764,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>424260</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>315135</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66852</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD680527-038B-42ED-8773-7917418AE5DB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E4ACAB-767C-41B5-B252-7D6531A8F7EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2786,7 +2791,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="685800"/>
-          <a:ext cx="11397060" cy="6120000"/>
+          <a:ext cx="5801535" cy="1267002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2795,25 +2800,69 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>423513</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C86633D-124D-4439-A45F-40A08D949A7E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51" y="2400300"/>
+          <a:ext cx="11396262" cy="6120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>371526</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CE6DB1-AE31-406F-857A-0C10D277A800}"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB084101-0C85-4853-B11A-FE82A2DF40C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2821,8 +2870,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1790700" y="1552575"/>
-          <a:ext cx="1524000" cy="323849"/>
+          <a:off x="3114726" y="3705225"/>
+          <a:ext cx="3533724" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2864,27 +2913,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>52</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>315135</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>66852</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>413273</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E4ACAB-767C-41B5-B252-7D6531A8F7EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1DA067-5045-4751-95B1-E6CEA890B9DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2900,8 +2949,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="685800"/>
-          <a:ext cx="5801535" cy="1267002"/>
+          <a:off x="52" y="685800"/>
+          <a:ext cx="11386021" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2910,69 +2959,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>51</xdr:colOff>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>423513</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C86633D-124D-4439-A45F-40A08D949A7E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51" y="2400300"/>
-          <a:ext cx="11396262" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>371526</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB084101-0C85-4853-B11A-FE82A2DF40C1}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C74233-5027-458F-91BD-F4BE7743505F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2980,8 +2985,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114726" y="3705225"/>
-          <a:ext cx="3533724" cy="304800"/>
+          <a:off x="3143249" y="2371725"/>
+          <a:ext cx="342901" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3020,74 +3025,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>52</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>413273</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC1DA067-5045-4751-95B1-E6CEA890B9DD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="52" y="685800"/>
-          <a:ext cx="11386021" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C74233-5027-458F-91BD-F4BE7743505F}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA67403-2539-49D9-BDF2-25648F8191E9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3095,8 +3051,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143249" y="2371725"/>
-          <a:ext cx="342901" cy="190500"/>
+          <a:off x="3105150" y="3276600"/>
+          <a:ext cx="428625" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3135,25 +3091,69 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>51</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>435387</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35B8E98-22C5-4929-9735-73A2A5E93EE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51" y="7029450"/>
+          <a:ext cx="11408136" cy="6120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>381051</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CA67403-2539-49D9-BDF2-25648F8191E9}"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E928DFCF-E128-4163-80BA-71159379FFEA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3161,8 +3161,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3105150" y="3276600"/>
-          <a:ext cx="428625" cy="304800"/>
+          <a:off x="3124251" y="8905875"/>
+          <a:ext cx="1685874" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3201,25 +3201,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>391055</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104978</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D3410E-6A7C-4298-99CD-EE46FE07E4E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="704850"/>
+          <a:ext cx="3801005" cy="1457528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>51</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>435387</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F35B8E98-22C5-4929-9735-73A2A5E93EE3}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69361979-6CED-49EE-8E2D-DB9C977ADCAD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3235,7 +3284,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="51" y="7029450"/>
+          <a:off x="51" y="2400300"/>
           <a:ext cx="11408136" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3248,22 +3297,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>381051</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>362001</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E928DFCF-E128-4163-80BA-71159379FFEA}"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF196E65-A313-4CF0-B40E-2E338DD7DF16}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3271,8 +3320,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124251" y="8905875"/>
-          <a:ext cx="1685874" cy="171450"/>
+          <a:off x="3105201" y="4029075"/>
+          <a:ext cx="666699" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3314,27 +3363,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>52</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>391055</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>104978</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>413273</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08D3410E-6A7C-4298-99CD-EE46FE07E4E3}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6146AC5-F6B3-4A7C-BFA6-C469F6A9DC7B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3350,8 +3399,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="19050" y="704850"/>
-          <a:ext cx="3801005" cy="1457528"/>
+          <a:off x="52" y="685800"/>
+          <a:ext cx="11386021" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3360,69 +3409,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>51</xdr:colOff>
-      <xdr:row>14</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>400103</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>435387</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69361979-6CED-49EE-8E2D-DB9C977ADCAD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51" y="2400300"/>
-          <a:ext cx="11408136" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>362001</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF196E65-A313-4CF0-B40E-2E338DD7DF16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3973DEE4-BE3A-45D3-A4A4-391E06272F04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3430,8 +3435,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3105201" y="4029075"/>
-          <a:ext cx="666699" cy="304800"/>
+          <a:off x="3143303" y="2362200"/>
+          <a:ext cx="399998" cy="209550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3473,27 +3478,27 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>52</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>413273</xdr:colOff>
+      <xdr:colOff>429398</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6146AC5-F6B3-4A7C-BFA6-C469F6A9DC7B}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3533418F-86DA-4CDC-A147-07D9847BB3F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3509,8 +3514,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="52" y="685800"/>
-          <a:ext cx="11386021" cy="6120000"/>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="11402198" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3522,22 +3527,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>400103</xdr:colOff>
+      <xdr:colOff>428624</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3973DEE4-BE3A-45D3-A4A4-391E06272F04}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A842A5-C50E-4158-9594-C492B6C1708A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3545,8 +3550,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3143303" y="2362200"/>
-          <a:ext cx="399998" cy="209550"/>
+          <a:off x="3171824" y="2362199"/>
+          <a:ext cx="6372226" cy="219076"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3588,7 +3593,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3599,7 +3604,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>429398</xdr:colOff>
+      <xdr:colOff>424260</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
@@ -3608,7 +3613,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3533418F-86DA-4CDC-A147-07D9847BB3F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B1963C-6ED1-4B16-AE13-8E874AE0AE4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3625,7 +3630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="685800"/>
-          <a:ext cx="11402198" cy="6120000"/>
+          <a:ext cx="11397060" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3637,22 +3642,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>428624</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6A842A5-C50E-4158-9594-C492B6C1708A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4009AF1-3DD7-4D78-A672-23E3CE61A80C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3660,8 +3665,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3171824" y="2362199"/>
-          <a:ext cx="6372226" cy="219076"/>
+          <a:off x="3152775" y="2676525"/>
+          <a:ext cx="695325" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3703,18 +3708,18 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>51</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>424260</xdr:colOff>
+      <xdr:colOff>435387</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
@@ -3723,7 +3728,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06B1963C-6ED1-4B16-AE13-8E874AE0AE4F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB86EF9-DA22-4751-BD6E-A6E02543D7A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3739,8 +3744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="685800"/>
-          <a:ext cx="11397060" cy="6120000"/>
+          <a:off x="51" y="685800"/>
+          <a:ext cx="11408136" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3751,23 +3756,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76252</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466726</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4009AF1-3DD7-4D78-A672-23E3CE61A80C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D719115-A44F-4326-94F2-851E716E20E7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,8 +3780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3152775" y="2676525"/>
-          <a:ext cx="695325" cy="228600"/>
+          <a:off x="3505252" y="2333625"/>
+          <a:ext cx="390474" cy="266700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3815,30 +3820,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>413273</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>119250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48728D4-D219-4F76-9514-0D1E59AF38FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52" y="7029450"/>
+          <a:ext cx="11386021" cy="6120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>51</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>435387</xdr:colOff>
+      <xdr:colOff>413221</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB86EF9-DA22-4751-BD6E-A6E02543D7A3}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7F1AA7-0957-4ACF-9FE3-F86F8CBD59A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3854,8 +3903,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="51" y="685800"/>
-          <a:ext cx="11408136" cy="6120000"/>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="11386021" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3866,23 +3915,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76252</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>466726</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D719115-A44F-4326-94F2-851E716E20E7}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE340194-1549-4878-A6EE-9ED7FCF7229C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,8 +3939,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3505252" y="2333625"/>
-          <a:ext cx="390474" cy="266700"/>
+          <a:off x="3114675" y="2000250"/>
+          <a:ext cx="6448424" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3930,54 +3979,10 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>52</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>413273</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A48728D4-D219-4F76-9514-0D1E59AF38FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="52" y="7029450"/>
-          <a:ext cx="11386021" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3994,10 +3999,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB7F1AA7-0957-4ACF-9FE3-F86F8CBD59A6}"/>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07D468C-2276-4F60-BBF9-252D6474C884}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4027,21 +4032,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>647699</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE340194-1549-4878-A6EE-9ED7FCF7229C}"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF0CFB6-5491-4CDE-99EF-EC062B05A814}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4049,8 +4054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114675" y="2000250"/>
-          <a:ext cx="6448424" cy="285750"/>
+          <a:off x="3114675" y="2324100"/>
+          <a:ext cx="276225" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4092,7 +4097,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4112,7 +4117,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D07D468C-2276-4F60-BBF9-252D6474C884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EFE433-88C7-49C6-9FC9-696232AF7260}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4141,22 +4146,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DF0CFB6-5491-4CDE-99EF-EC062B05A814}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEC7C73-4DC4-4E8C-BAB5-A33C3ABCACB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4164,8 +4169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3114675" y="2324100"/>
-          <a:ext cx="276225" cy="285750"/>
+          <a:off x="3124200" y="2638425"/>
+          <a:ext cx="723900" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4207,7 +4212,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4218,7 +4223,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>413221</xdr:colOff>
+      <xdr:colOff>424260</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
@@ -4227,7 +4232,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84EFE433-88C7-49C6-9FC9-696232AF7260}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A37342-A000-4EE2-B14E-F25B2A0D27FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4244,7 +4249,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="685800"/>
-          <a:ext cx="11386021" cy="6120000"/>
+          <a:ext cx="11397060" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4255,15 +4260,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4271,7 +4276,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7BEC7C73-4DC4-4E8C-BAB5-A33C3ABCACB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6FBC25-E537-40D2-AF22-F35AA8D49D4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4279,8 +4284,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="2638425"/>
-          <a:ext cx="723900" cy="285750"/>
+          <a:off x="1809751" y="2057400"/>
+          <a:ext cx="361950" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4322,7 +4327,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4333,7 +4338,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>424260</xdr:colOff>
+      <xdr:colOff>413221</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
@@ -4342,7 +4347,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A37342-A000-4EE2-B14E-F25B2A0D27FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F805EF-DF6D-45B5-8F7D-278F236525C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4359,7 +4364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="685800"/>
-          <a:ext cx="11397060" cy="6120000"/>
+          <a:ext cx="11386021" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4370,23 +4375,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438151</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>114301</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB6FBC25-E537-40D2-AF22-F35AA8D49D4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3851288F-3760-44E4-959C-DDE8267583F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4394,8 +4399,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1809751" y="2057400"/>
-          <a:ext cx="361950" cy="180975"/>
+          <a:off x="3124200" y="2962275"/>
+          <a:ext cx="723900" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4437,7 +4442,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -4448,7 +4453,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>413221</xdr:colOff>
+      <xdr:colOff>424260</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
@@ -4457,7 +4462,7 @@
         <xdr:cNvPr id="2" name="図 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68F805EF-DF6D-45B5-8F7D-278F236525C1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358FDDC-588A-48F1-AA0D-54A484B2276E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4474,7 +4479,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="685800"/>
-          <a:ext cx="11386021" cy="6120000"/>
+          <a:ext cx="11397060" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4487,21 +4492,21 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3851288F-3760-44E4-959C-DDE8267583F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5824657D-D366-44F0-936C-6DFBCD8FAB18}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4509,8 +4514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="2962275"/>
-          <a:ext cx="723900" cy="285750"/>
+          <a:off x="3124200" y="3286125"/>
+          <a:ext cx="400050" cy="276225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4549,30 +4554,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing31.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>424260</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>119250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B358FDDC-588A-48F1-AA0D-54A484B2276E}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5811E2D-BA57-4FB5-8835-1EAA9CC96C72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4581,14 +4581,14 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="685800"/>
+          <a:off x="0" y="7029450"/>
           <a:ext cx="11397060" cy="6120000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4600,23 +4600,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5824657D-D366-44F0-936C-6DFBCD8FAB18}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF796D9-927D-4058-BA7F-345F5A489462}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4624,8 +4624,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3124200" y="3286125"/>
-          <a:ext cx="400050" cy="276225"/>
+          <a:off x="1809750" y="8334376"/>
+          <a:ext cx="7772400" cy="419100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4664,116 +4664,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>424260</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>119250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5811E2D-BA57-4FB5-8835-1EAA9CC96C72}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="7029450"/>
-          <a:ext cx="11397060" cy="6120000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DBF796D9-927D-4058-BA7F-345F5A489462}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1809750" y="8334376"/>
-          <a:ext cx="7772400" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4794,10 +4684,10 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4FFA7AB-2405-4CC4-8633-5B809BD5D568}"/>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89D4F7EB-E3B7-4085-941D-36992C98C0B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4825,23 +4715,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F4FBE64-AD02-41C9-9881-52395FD45A44}"/>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE270DCC-9095-4FBD-B8DF-2111F622020D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4849,8 +4739,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1828799" y="3238500"/>
-          <a:ext cx="7743825" cy="276225"/>
+          <a:off x="1266825" y="3238500"/>
+          <a:ext cx="3781425" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6290,7 +6180,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -6310,12 +6200,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -6360,12 +6250,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -6385,12 +6275,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6410,12 +6300,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -6435,12 +6325,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -6461,12 +6351,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -6486,12 +6376,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -6511,12 +6401,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -6536,7 +6426,32 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F976B83D-4EC2-4C3F-B382-C403A6290CFB}">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -6551,31 +6466,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F976B83D-4EC2-4C3F-B382-C403A6290CFB}">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8768417E-99C8-48F5-8B76-17569B8500B8}">
   <dimension ref="A2:A3"/>
@@ -6586,12 +6476,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -6636,12 +6526,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -6661,12 +6551,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -6686,18 +6576,19 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6711,12 +6602,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -7035,18 +6926,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7068,18 +6959,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>